--- a/RWS05.xlsx
+++ b/RWS05.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
   <si>
     <t/>
   </si>
@@ -139,6 +139,15 @@
     <t>11</t>
   </si>
   <si>
+    <t>20140723</t>
+  </si>
+  <si>
+    <t>PADDLE POP FRT TOWER</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>20092895</t>
   </si>
   <si>
@@ -181,6 +190,12 @@
     <t>WALL FST POP STR</t>
   </si>
   <si>
+    <t>20140730</t>
+  </si>
+  <si>
+    <t>CORNETTO CHO BROWNIE</t>
+  </si>
+  <si>
     <t>20125168</t>
   </si>
   <si>
@@ -205,12 +220,6 @@
     <t>WALL'S FEAST VNILA65</t>
   </si>
   <si>
-    <t>20134321</t>
-  </si>
-  <si>
-    <t>WALLS CALPPO BLUE100</t>
-  </si>
-  <si>
     <t>20134322</t>
   </si>
   <si>
@@ -241,12 +250,6 @@
     <t>MAGNUM MATCHA.CRBL80</t>
   </si>
   <si>
-    <t>20125166</t>
-  </si>
-  <si>
-    <t>MAGNUM CKIES &amp; CRM80</t>
-  </si>
-  <si>
     <t>20032368</t>
   </si>
   <si>
@@ -289,6 +292,12 @@
     <t>WALLS TROPCL DL 350</t>
   </si>
   <si>
+    <t>20140732</t>
+  </si>
+  <si>
+    <t>WALLS MATCHA STW 350</t>
+  </si>
+  <si>
     <t>20042833</t>
   </si>
   <si>
@@ -301,18 +310,6 @@
     <t>MINI CRNTTO OREO 12S</t>
   </si>
   <si>
-    <t>20125172</t>
-  </si>
-  <si>
-    <t>WALLS SLC SLVRQEN410</t>
-  </si>
-  <si>
-    <t>20133248</t>
-  </si>
-  <si>
-    <t>WALLS MANGO COCO 350</t>
-  </si>
-  <si>
     <t>20136391</t>
   </si>
   <si>
@@ -329,6 +326,12 @@
   </si>
   <si>
     <t>MAGNUM MINI CAS 6S</t>
+  </si>
+  <si>
+    <t>20140731</t>
+  </si>
+  <si>
+    <t>WALLS AVOCDO BRW 350</t>
   </si>
   <si>
     <t>20115639</t>
@@ -1077,21 +1080,21 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1100,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -1108,10 +1111,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -1120,18 +1123,18 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -1140,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>19</v>
@@ -1148,10 +1151,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1160,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>19</v>
@@ -1168,10 +1171,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -1180,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>19</v>
@@ -1188,10 +1191,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1200,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -1208,19 +1211,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
@@ -1228,30 +1231,30 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1260,18 +1263,18 @@
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1280,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
@@ -1288,10 +1291,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1300,18 +1303,18 @@
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1320,18 +1323,18 @@
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1340,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
@@ -1348,10 +1351,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1360,7 +1363,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
@@ -1368,10 +1371,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1380,7 +1383,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>19</v>
@@ -1388,19 +1391,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>19</v>
@@ -1408,10 +1411,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -1420,7 +1423,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>19</v>
@@ -1428,10 +1431,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -1448,10 +1451,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1468,10 +1471,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -1488,10 +1491,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -1508,10 +1511,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -1528,10 +1531,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -1548,10 +1551,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -1568,30 +1571,30 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -1600,18 +1603,18 @@
         <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -1620,18 +1623,18 @@
         <v>29</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -1640,7 +1643,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>19</v>
@@ -1648,10 +1651,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -1660,7 +1663,7 @@
         <v>29</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>19</v>
@@ -1668,10 +1671,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -1680,7 +1683,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>19</v>
@@ -1688,10 +1691,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -1700,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>19</v>
@@ -1708,10 +1711,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -1728,10 +1731,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -1748,10 +1751,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -1768,10 +1771,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -1788,10 +1791,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
@@ -1808,10 +1811,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
@@ -1828,10 +1831,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
@@ -1848,22 +1851,22 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/RWS05.xlsx
+++ b/RWS05.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="127">
   <si>
     <t/>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>WALLS FEAST MAX CHO</t>
+  </si>
+  <si>
+    <t>20141200</t>
+  </si>
+  <si>
+    <t>WALLS BALL STRW GUAV</t>
   </si>
   <si>
     <t>20129821</t>
@@ -778,7 +784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1420,10 +1426,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>19</v>
@@ -1443,10 +1449,10 @@
         <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,7 +1469,7 @@
         <v>24</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>5</v>
@@ -1483,10 +1489,10 @@
         <v>24</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1503,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>19</v>
@@ -1523,7 +1529,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>19</v>
@@ -1540,13 +1546,13 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1563,10 +1569,10 @@
         <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,7 +1589,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>19</v>
@@ -1600,13 +1606,13 @@
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,10 +1629,10 @@
         <v>29</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,10 +1649,10 @@
         <v>29</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,7 +1669,7 @@
         <v>29</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>19</v>
@@ -1683,7 +1689,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>19</v>
@@ -1703,7 +1709,7 @@
         <v>29</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>19</v>
@@ -1720,13 +1726,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,7 +1749,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -1763,7 +1769,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -1783,7 +1789,7 @@
         <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -1803,10 +1809,10 @@
         <v>32</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,7 +1829,7 @@
         <v>32</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>19</v>
@@ -1843,7 +1849,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>19</v>
@@ -1860,13 +1866,33 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>124</v>
+      <c r="F55" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/RWS05.xlsx
+++ b/RWS05.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="129">
   <si>
     <t/>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>WALLS BALL STRW GUAV</t>
+  </si>
+  <si>
+    <t>20141201</t>
+  </si>
+  <si>
+    <t>WALLS BALL GRAPE</t>
   </si>
   <si>
     <t>20129821</t>
@@ -784,7 +790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1446,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>19</v>
@@ -1469,10 +1475,10 @@
         <v>24</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1489,7 +1495,7 @@
         <v>24</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -1509,10 +1515,10 @@
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1529,7 +1535,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>19</v>
@@ -1549,7 +1555,7 @@
         <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>19</v>
@@ -1566,13 +1572,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,10 +1595,10 @@
         <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,7 +1615,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>19</v>
@@ -1626,13 +1632,13 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,10 +1655,10 @@
         <v>29</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1669,10 +1675,10 @@
         <v>29</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1689,7 +1695,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>19</v>
@@ -1709,7 +1715,7 @@
         <v>29</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>19</v>
@@ -1729,7 +1735,7 @@
         <v>29</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>19</v>
@@ -1746,13 +1752,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,7 +1775,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -1789,7 +1795,7 @@
         <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -1809,7 +1815,7 @@
         <v>32</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -1829,10 +1835,10 @@
         <v>32</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,7 +1855,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>19</v>
@@ -1869,7 +1875,7 @@
         <v>32</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>19</v>
@@ -1886,13 +1892,33 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>126</v>
+      <c r="F56" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
